--- a/docs/analysis/chla_2.1_grb.xlsx
+++ b/docs/analysis/chla_2.1_grb.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://floridadep-my.sharepoint.com/personal/shannon_dunnigan_dep_state_fl_us/Documents/OPEN_PROJECTS/chla-nerrs-catalyst/analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dunnigan_s\OneDrive - Florida Department of Environmental Protection\OPEN_PROJECTS\chla-nerrs-catalyst\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="8_{251735DC-4A66-4304-9BF6-0ABE787D9E7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{68276669-4D51-4498-A623-DBF5BFBF4155}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D146E605-2543-4013-B2F9-975DDDCEDDD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tank" sheetId="1" r:id="rId1"/>
@@ -465,7 +465,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -482,6 +482,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF9900"/>
         <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -513,7 +519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -588,6 +594,10 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -805,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5772,7 +5782,7 @@
         <v>81</v>
       </c>
       <c r="G42" s="13">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H42" s="2">
         <v>44466.555555555555</v>
@@ -5892,7 +5902,7 @@
         <v>83</v>
       </c>
       <c r="G43" s="13">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H43" s="2">
         <v>44466.555555555555</v>
@@ -6012,7 +6022,7 @@
         <v>84</v>
       </c>
       <c r="G44" s="13">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H44" s="2">
         <v>44467.351388888892</v>
@@ -6132,7 +6142,7 @@
         <v>84</v>
       </c>
       <c r="G45" s="13">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H45" s="2">
         <v>44467.351388888892</v>
@@ -6252,7 +6262,7 @@
         <v>86</v>
       </c>
       <c r="G46" s="13">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H46" s="2">
         <v>44468.595833333333</v>
@@ -6372,7 +6382,7 @@
         <v>88</v>
       </c>
       <c r="G47" s="13">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H47" s="2">
         <v>44468.595833333333</v>
@@ -6492,7 +6502,7 @@
         <v>89</v>
       </c>
       <c r="G48" s="13">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H48" s="2">
         <v>44469.53125</v>
@@ -6612,7 +6622,7 @@
         <v>91</v>
       </c>
       <c r="G49" s="13">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H49" s="2">
         <v>44469.53125</v>
@@ -6732,7 +6742,7 @@
         <v>92</v>
       </c>
       <c r="G50" s="13">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H50" s="2">
         <v>44470.504861111112</v>
@@ -6852,7 +6862,7 @@
         <v>94</v>
       </c>
       <c r="G51" s="13">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H51" s="2">
         <v>44470.504861111112</v>
@@ -15985,8 +15995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AK1000"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="R1" sqref="Q1:R1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -16025,7 +16035,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="36" t="s">
         <v>124</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -16138,7 +16148,7 @@
       </c>
     </row>
     <row r="2" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="36">
         <v>0</v>
       </c>
       <c r="B2" s="31">
@@ -16249,7 +16259,7 @@
       </c>
     </row>
     <row r="3" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="36">
         <v>0</v>
       </c>
       <c r="B3" s="31">
@@ -16360,7 +16370,7 @@
       </c>
     </row>
     <row r="4" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="36">
         <v>0</v>
       </c>
       <c r="B4" s="31">
@@ -16471,7 +16481,7 @@
       </c>
     </row>
     <row r="5" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="36">
         <v>0</v>
       </c>
       <c r="B5" s="31">
@@ -16582,7 +16592,7 @@
       </c>
     </row>
     <row r="6" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="36">
         <v>0</v>
       </c>
       <c r="B6" s="31">
@@ -16693,7 +16703,7 @@
       </c>
     </row>
     <row r="7" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="36">
         <v>0</v>
       </c>
       <c r="B7" s="31">
@@ -16802,7 +16812,7 @@
       </c>
     </row>
     <row r="8" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="36">
         <v>0</v>
       </c>
       <c r="B8" s="31">
@@ -16911,7 +16921,7 @@
       </c>
     </row>
     <row r="9" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="36">
         <v>0</v>
       </c>
       <c r="B9" s="31">
@@ -17020,7 +17030,7 @@
       </c>
     </row>
     <row r="10" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="36">
         <v>0</v>
       </c>
       <c r="B10" s="31">
@@ -17129,7 +17139,7 @@
       </c>
     </row>
     <row r="11" spans="1:37" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="36">
         <v>0</v>
       </c>
       <c r="B11" s="31">
@@ -17238,7 +17248,7 @@
       </c>
     </row>
     <row r="12" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="36">
         <v>0</v>
       </c>
       <c r="B12" s="31">
@@ -17347,7 +17357,7 @@
       </c>
     </row>
     <row r="13" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="36">
         <v>0</v>
       </c>
       <c r="B13" s="31">
@@ -17456,7 +17466,7 @@
       </c>
     </row>
     <row r="14" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="36">
         <v>0</v>
       </c>
       <c r="B14" s="31">
@@ -17565,14 +17575,14 @@
       </c>
     </row>
     <row r="15" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="36">
         <v>0</v>
       </c>
       <c r="B15" s="31">
         <v>2</v>
       </c>
       <c r="C15" s="31">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D15" s="31" t="s">
         <v>37</v>
@@ -17676,14 +17686,14 @@
       </c>
     </row>
     <row r="16" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="36">
         <v>0</v>
       </c>
       <c r="B16" s="31">
         <v>2</v>
       </c>
       <c r="C16" s="31">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D16" s="31" t="s">
         <v>37</v>
@@ -17787,14 +17797,14 @@
       </c>
     </row>
     <row r="17" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="36">
         <v>0</v>
       </c>
       <c r="B17" s="31">
         <v>2</v>
       </c>
       <c r="C17" s="31">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D17" s="31" t="s">
         <v>37</v>
@@ -17896,14 +17906,14 @@
       </c>
     </row>
     <row r="18" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="36">
         <v>0</v>
       </c>
       <c r="B18" s="31">
         <v>2</v>
       </c>
       <c r="C18" s="31">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D18" s="31" t="s">
         <v>37</v>
@@ -18005,14 +18015,14 @@
       </c>
     </row>
     <row r="19" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="36">
         <v>0</v>
       </c>
       <c r="B19" s="31">
         <v>2</v>
       </c>
       <c r="C19" s="31">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D19" s="31" t="s">
         <v>37</v>
@@ -18114,14 +18124,14 @@
       </c>
     </row>
     <row r="20" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="36">
         <v>0</v>
       </c>
       <c r="B20" s="31">
         <v>2</v>
       </c>
       <c r="C20" s="31">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D20" s="31" t="s">
         <v>37</v>
@@ -18223,14 +18233,14 @@
       </c>
     </row>
     <row r="21" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="36">
         <v>0</v>
       </c>
       <c r="B21" s="31">
         <v>2</v>
       </c>
       <c r="C21" s="31">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D21" s="31" t="s">
         <v>37</v>
@@ -18332,14 +18342,14 @@
       </c>
     </row>
     <row r="22" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="36">
         <v>0</v>
       </c>
       <c r="B22" s="31">
         <v>2</v>
       </c>
       <c r="C22" s="31">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D22" s="31" t="s">
         <v>37</v>
@@ -18441,14 +18451,14 @@
       </c>
     </row>
     <row r="23" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="36">
         <v>0</v>
       </c>
       <c r="B23" s="31">
         <v>2</v>
       </c>
       <c r="C23" s="31">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D23" s="31" t="s">
         <v>37</v>
@@ -18550,14 +18560,14 @@
       </c>
     </row>
     <row r="24" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="36">
         <v>0</v>
       </c>
       <c r="B24" s="31">
         <v>2</v>
       </c>
       <c r="C24" s="31">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D24" s="31" t="s">
         <v>37</v>
@@ -18659,14 +18669,14 @@
       </c>
     </row>
     <row r="25" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="36">
         <v>0</v>
       </c>
       <c r="B25" s="31">
         <v>2</v>
       </c>
       <c r="C25" s="31">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D25" s="31" t="s">
         <v>37</v>
@@ -18768,14 +18778,14 @@
       </c>
     </row>
     <row r="26" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="36">
         <v>0</v>
       </c>
       <c r="B26" s="31">
         <v>2</v>
       </c>
       <c r="C26" s="31">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D26" s="31" t="s">
         <v>37</v>
@@ -18877,14 +18887,14 @@
       </c>
     </row>
     <row r="27" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="36">
         <v>0</v>
       </c>
       <c r="B27" s="31">
         <v>3</v>
       </c>
       <c r="C27" s="31">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D27" s="31" t="s">
         <v>37</v>
@@ -18988,14 +18998,14 @@
       </c>
     </row>
     <row r="28" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="36">
         <v>0</v>
       </c>
       <c r="B28" s="31">
         <v>3</v>
       </c>
       <c r="C28" s="31">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="D28" s="31" t="s">
         <v>37</v>
@@ -19099,14 +19109,14 @@
       </c>
     </row>
     <row r="29" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="36">
         <v>0</v>
       </c>
       <c r="B29" s="31">
         <v>3</v>
       </c>
       <c r="C29" s="31">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="D29" s="31" t="s">
         <v>37</v>
@@ -19208,14 +19218,14 @@
       </c>
     </row>
     <row r="30" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="36">
         <v>0</v>
       </c>
       <c r="B30" s="31">
         <v>3</v>
       </c>
       <c r="C30" s="31">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="D30" s="31" t="s">
         <v>37</v>
@@ -19317,14 +19327,14 @@
       </c>
     </row>
     <row r="31" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="36">
         <v>0</v>
       </c>
       <c r="B31" s="31">
         <v>3</v>
       </c>
       <c r="C31" s="31">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D31" s="31" t="s">
         <v>37</v>
@@ -19426,14 +19436,14 @@
       </c>
     </row>
     <row r="32" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="36">
         <v>0</v>
       </c>
       <c r="B32" s="31">
         <v>3</v>
       </c>
       <c r="C32" s="31">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D32" s="31" t="s">
         <v>37</v>
@@ -19537,14 +19547,14 @@
       </c>
     </row>
     <row r="33" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="36">
         <v>0</v>
       </c>
       <c r="B33" s="31">
         <v>3</v>
       </c>
       <c r="C33" s="31">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="D33" s="31" t="s">
         <v>37</v>
@@ -19646,14 +19656,14 @@
       </c>
     </row>
     <row r="34" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="36">
         <v>0</v>
       </c>
       <c r="B34" s="31">
         <v>3</v>
       </c>
       <c r="C34" s="31">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D34" s="31" t="s">
         <v>37</v>
@@ -19755,14 +19765,14 @@
       </c>
     </row>
     <row r="35" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="36">
         <v>0</v>
       </c>
       <c r="B35" s="31">
         <v>3</v>
       </c>
       <c r="C35" s="31">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D35" s="31" t="s">
         <v>37</v>
@@ -19864,14 +19874,14 @@
       </c>
     </row>
     <row r="36" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="36">
         <v>0</v>
       </c>
       <c r="B36" s="31">
         <v>3</v>
       </c>
       <c r="C36" s="31">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D36" s="31" t="s">
         <v>37</v>
@@ -19973,14 +19983,14 @@
       </c>
     </row>
     <row r="37" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="36">
         <v>0</v>
       </c>
       <c r="B37" s="31">
         <v>3</v>
       </c>
       <c r="C37" s="31">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D37" s="31" t="s">
         <v>37</v>
@@ -20082,14 +20092,14 @@
       </c>
     </row>
     <row r="38" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="36">
         <v>0</v>
       </c>
       <c r="B38" s="31">
         <v>3</v>
       </c>
       <c r="C38" s="31">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D38" s="31" t="s">
         <v>37</v>
@@ -20191,14 +20201,14 @@
       </c>
     </row>
     <row r="39" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="36">
         <v>0</v>
       </c>
       <c r="B39" s="31">
         <v>3</v>
       </c>
       <c r="C39" s="31">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="D39" s="31" t="s">
         <v>37</v>
@@ -20300,14 +20310,14 @@
       </c>
     </row>
     <row r="40" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="36">
         <v>0</v>
       </c>
       <c r="B40" s="31">
         <v>3</v>
       </c>
       <c r="C40" s="31">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D40" s="31" t="s">
         <v>37</v>
@@ -20409,14 +20419,14 @@
       </c>
     </row>
     <row r="41" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="36">
         <v>0</v>
       </c>
       <c r="B41" s="31">
         <v>3</v>
       </c>
       <c r="C41" s="31">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D41" s="31" t="s">
         <v>37</v>
@@ -20518,14 +20528,14 @@
       </c>
     </row>
     <row r="42" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" s="36">
         <v>0</v>
       </c>
       <c r="B42" s="31">
         <v>3</v>
       </c>
       <c r="C42" s="31">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D42" s="31" t="s">
         <v>37</v>
@@ -20627,14 +20637,14 @@
       </c>
     </row>
     <row r="43" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="A43" s="36">
         <v>0</v>
       </c>
       <c r="B43" s="31">
         <v>3</v>
       </c>
       <c r="C43" s="31">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D43" s="31" t="s">
         <v>37</v>
@@ -20736,14 +20746,14 @@
       </c>
     </row>
     <row r="44" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="A44" s="36">
         <v>0</v>
       </c>
       <c r="B44" s="31">
         <v>3</v>
       </c>
       <c r="C44" s="31">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D44" s="31" t="s">
         <v>37</v>
@@ -20845,14 +20855,14 @@
       </c>
     </row>
     <row r="45" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="A45" s="36">
         <v>0</v>
       </c>
       <c r="B45" s="31">
         <v>3</v>
       </c>
       <c r="C45" s="31">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="D45" s="31" t="s">
         <v>37</v>
@@ -20954,14 +20964,14 @@
       </c>
     </row>
     <row r="46" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="A46" s="36">
         <v>0</v>
       </c>
       <c r="B46" s="31">
         <v>3</v>
       </c>
       <c r="C46" s="31">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D46" s="31" t="s">
         <v>37</v>
@@ -21063,14 +21073,14 @@
       </c>
     </row>
     <row r="47" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="A47" s="36">
         <v>0</v>
       </c>
       <c r="B47" s="31">
         <v>3</v>
       </c>
       <c r="C47" s="31">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="D47" s="31" t="s">
         <v>37</v>
@@ -21172,14 +21182,14 @@
       </c>
     </row>
     <row r="48" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="A48" s="36">
         <v>0</v>
       </c>
       <c r="B48" s="31">
         <v>3</v>
       </c>
       <c r="C48" s="31">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="D48" s="31" t="s">
         <v>37</v>
@@ -21281,14 +21291,14 @@
       </c>
     </row>
     <row r="49" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="A49" s="36">
         <v>0</v>
       </c>
       <c r="B49" s="31">
         <v>4</v>
       </c>
-      <c r="C49" s="31">
-        <v>48</v>
+      <c r="C49" s="37">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D49" s="31" t="s">
         <v>37</v>
@@ -21392,14 +21402,14 @@
       </c>
     </row>
     <row r="50" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="A50" s="36">
         <v>0</v>
       </c>
       <c r="B50" s="31">
         <v>4</v>
       </c>
-      <c r="C50" s="31">
-        <v>48.1</v>
+      <c r="C50" s="37">
+        <v>1.2</v>
       </c>
       <c r="D50" s="31" t="s">
         <v>37</v>
@@ -21503,14 +21513,14 @@
       </c>
     </row>
     <row r="51" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="A51" s="36">
         <v>0</v>
       </c>
       <c r="B51" s="31">
         <v>4</v>
       </c>
-      <c r="C51" s="31">
-        <v>48.2</v>
+      <c r="C51" s="37">
+        <v>1.3</v>
       </c>
       <c r="D51" s="31" t="s">
         <v>37</v>
@@ -21614,14 +21624,14 @@
       </c>
     </row>
     <row r="52" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="A52" s="36">
         <v>0</v>
       </c>
       <c r="B52" s="31">
         <v>4</v>
       </c>
-      <c r="C52" s="31">
-        <v>49</v>
+      <c r="C52" s="37">
+        <v>2</v>
       </c>
       <c r="D52" s="31" t="s">
         <v>37</v>
@@ -21725,14 +21735,14 @@
       </c>
     </row>
     <row r="53" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="A53" s="36">
         <v>0</v>
       </c>
       <c r="B53" s="31">
         <v>4</v>
       </c>
-      <c r="C53" s="31">
-        <v>50</v>
+      <c r="C53" s="37">
+        <v>3</v>
       </c>
       <c r="D53" s="31" t="s">
         <v>37</v>
@@ -21836,14 +21846,14 @@
       </c>
     </row>
     <row r="54" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="A54" s="36">
         <v>0</v>
       </c>
       <c r="B54" s="31">
         <v>4</v>
       </c>
-      <c r="C54" s="31">
-        <v>51</v>
+      <c r="C54" s="37">
+        <v>4</v>
       </c>
       <c r="D54" s="31" t="s">
         <v>37</v>
@@ -21947,14 +21957,14 @@
       </c>
     </row>
     <row r="55" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="A55" s="36">
         <v>0</v>
       </c>
       <c r="B55" s="31">
         <v>4</v>
       </c>
-      <c r="C55" s="31">
-        <v>52</v>
+      <c r="C55" s="37">
+        <v>5</v>
       </c>
       <c r="D55" s="31" t="s">
         <v>37</v>
@@ -22056,14 +22066,14 @@
       </c>
     </row>
     <row r="56" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="A56" s="36">
         <v>0</v>
       </c>
       <c r="B56" s="31">
         <v>4</v>
       </c>
-      <c r="C56" s="31">
-        <v>53</v>
+      <c r="C56" s="37">
+        <v>6</v>
       </c>
       <c r="D56" s="31" t="s">
         <v>37</v>
@@ -22165,14 +22175,14 @@
       </c>
     </row>
     <row r="57" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="A57" s="36">
         <v>0</v>
       </c>
       <c r="B57" s="31">
         <v>4</v>
       </c>
-      <c r="C57" s="31">
-        <v>54</v>
+      <c r="C57" s="37">
+        <v>7</v>
       </c>
       <c r="D57" s="31" t="s">
         <v>37</v>
@@ -22274,14 +22284,14 @@
       </c>
     </row>
     <row r="58" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="A58" s="36">
         <v>0</v>
       </c>
       <c r="B58" s="31">
         <v>4</v>
       </c>
-      <c r="C58" s="31">
-        <v>55</v>
+      <c r="C58" s="37">
+        <v>8</v>
       </c>
       <c r="D58" s="31" t="s">
         <v>37</v>
@@ -22383,14 +22393,14 @@
       </c>
     </row>
     <row r="59" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="A59" s="36">
         <v>0</v>
       </c>
       <c r="B59" s="31">
         <v>4</v>
       </c>
-      <c r="C59" s="31">
-        <v>56</v>
+      <c r="C59" s="37">
+        <v>9</v>
       </c>
       <c r="D59" s="31" t="s">
         <v>37</v>
@@ -22492,14 +22502,14 @@
       </c>
     </row>
     <row r="60" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="A60" s="36">
         <v>0</v>
       </c>
       <c r="B60" s="31">
         <v>4</v>
       </c>
-      <c r="C60" s="31">
-        <v>57</v>
+      <c r="C60" s="37">
+        <v>10</v>
       </c>
       <c r="D60" s="31" t="s">
         <v>37</v>
@@ -22601,14 +22611,14 @@
       </c>
     </row>
     <row r="61" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="A61" s="36">
         <v>0</v>
       </c>
       <c r="B61" s="31">
         <v>4</v>
       </c>
-      <c r="C61" s="31">
-        <v>58</v>
+      <c r="C61" s="37">
+        <v>11</v>
       </c>
       <c r="D61" s="31" t="s">
         <v>37</v>
@@ -22710,14 +22720,14 @@
       </c>
     </row>
     <row r="62" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="A62" s="36">
         <v>0</v>
       </c>
       <c r="B62" s="31">
         <v>4</v>
       </c>
-      <c r="C62" s="31">
-        <v>59</v>
+      <c r="C62" s="37">
+        <v>12</v>
       </c>
       <c r="D62" s="31" t="s">
         <v>37</v>
@@ -22819,14 +22829,14 @@
       </c>
     </row>
     <row r="63" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="A63" s="36">
         <v>0</v>
       </c>
       <c r="B63" s="31">
         <v>4</v>
       </c>
-      <c r="C63" s="31">
-        <v>60</v>
+      <c r="C63" s="37">
+        <v>13</v>
       </c>
       <c r="D63" s="31" t="s">
         <v>37</v>
@@ -22928,14 +22938,14 @@
       </c>
     </row>
     <row r="64" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="A64" s="36">
         <v>0</v>
       </c>
       <c r="B64" s="31">
         <v>5</v>
       </c>
       <c r="C64" s="31">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="D64" s="31" t="s">
         <v>37</v>
@@ -23039,14 +23049,14 @@
       </c>
     </row>
     <row r="65" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="A65" s="36">
         <v>0</v>
       </c>
       <c r="B65" s="31">
         <v>5</v>
       </c>
       <c r="C65" s="31">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="D65" s="31" t="s">
         <v>37</v>
@@ -23150,14 +23160,14 @@
       </c>
     </row>
     <row r="66" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="A66" s="36">
         <v>0</v>
       </c>
       <c r="B66" s="31">
         <v>5</v>
       </c>
       <c r="C66" s="31">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="D66" s="31" t="s">
         <v>37</v>
@@ -23259,14 +23269,14 @@
       </c>
     </row>
     <row r="67" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="A67" s="36">
         <v>0</v>
       </c>
       <c r="B67" s="31">
         <v>5</v>
       </c>
       <c r="C67" s="31">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="D67" s="31" t="s">
         <v>37</v>
@@ -23368,14 +23378,14 @@
       </c>
     </row>
     <row r="68" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="A68" s="36">
         <v>0</v>
       </c>
       <c r="B68" s="31">
         <v>5</v>
       </c>
       <c r="C68" s="31">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="D68" s="31" t="s">
         <v>37</v>
@@ -23477,14 +23487,14 @@
       </c>
     </row>
     <row r="69" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="A69" s="36">
         <v>0</v>
       </c>
       <c r="B69" s="31">
         <v>5</v>
       </c>
       <c r="C69" s="31">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="D69" s="31" t="s">
         <v>37</v>
@@ -23586,14 +23596,14 @@
       </c>
     </row>
     <row r="70" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="A70" s="36">
         <v>0</v>
       </c>
       <c r="B70" s="31">
         <v>5</v>
       </c>
       <c r="C70" s="31">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="D70" s="31" t="s">
         <v>37</v>
@@ -23695,14 +23705,14 @@
       </c>
     </row>
     <row r="71" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="A71" s="36">
         <v>0</v>
       </c>
       <c r="B71" s="31">
         <v>5</v>
       </c>
       <c r="C71" s="31">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="D71" s="31" t="s">
         <v>37</v>
@@ -23804,14 +23814,14 @@
       </c>
     </row>
     <row r="72" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="A72" s="36">
         <v>0</v>
       </c>
       <c r="B72" s="31">
         <v>5</v>
       </c>
       <c r="C72" s="31">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="D72" s="31" t="s">
         <v>37</v>
@@ -23913,14 +23923,14 @@
       </c>
     </row>
     <row r="73" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="A73" s="36">
         <v>0</v>
       </c>
       <c r="B73" s="31">
         <v>5</v>
       </c>
       <c r="C73" s="31">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="D73" s="31" t="s">
         <v>37</v>
@@ -24022,14 +24032,14 @@
       </c>
     </row>
     <row r="74" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="A74" s="36">
         <v>0</v>
       </c>
       <c r="B74" s="31">
         <v>5</v>
       </c>
       <c r="C74" s="31">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="D74" s="31" t="s">
         <v>37</v>
@@ -24131,14 +24141,14 @@
       </c>
     </row>
     <row r="75" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="A75" s="36">
         <v>0</v>
       </c>
       <c r="B75" s="31">
         <v>5</v>
       </c>
       <c r="C75" s="31">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="D75" s="31" t="s">
         <v>37</v>
@@ -24240,14 +24250,14 @@
       </c>
     </row>
     <row r="76" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="A76" s="36">
         <v>0</v>
       </c>
       <c r="B76" s="31">
         <v>5</v>
       </c>
       <c r="C76" s="31">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="D76" s="31" t="s">
         <v>37</v>
@@ -24349,14 +24359,14 @@
       </c>
     </row>
     <row r="77" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="A77" s="36">
         <v>0</v>
       </c>
       <c r="B77" s="31">
         <v>5</v>
       </c>
       <c r="C77" s="31">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="D77" s="31" t="s">
         <v>37</v>
@@ -24458,14 +24468,14 @@
       </c>
     </row>
     <row r="78" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="A78" s="36">
         <v>0</v>
       </c>
       <c r="B78" s="31">
         <v>5</v>
       </c>
       <c r="C78" s="31">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="D78" s="31" t="s">
         <v>37</v>
@@ -24567,14 +24577,14 @@
       </c>
     </row>
     <row r="79" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79">
+      <c r="A79" s="36">
         <v>0</v>
       </c>
       <c r="B79" s="31">
         <v>5</v>
       </c>
       <c r="C79" s="31">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="D79" s="31" t="s">
         <v>37</v>
@@ -24676,14 +24686,14 @@
       </c>
     </row>
     <row r="80" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="A80" s="36">
         <v>0</v>
       </c>
       <c r="B80" s="31">
         <v>5</v>
       </c>
       <c r="C80" s="31">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="D80" s="31" t="s">
         <v>37</v>
@@ -24785,14 +24795,14 @@
       </c>
     </row>
     <row r="81" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="A81" s="36">
         <v>0</v>
       </c>
       <c r="B81" s="31">
         <v>5</v>
       </c>
       <c r="C81" s="31">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="D81" s="31" t="s">
         <v>37</v>
@@ -24894,14 +24904,14 @@
       </c>
     </row>
     <row r="82" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="A82" s="36">
         <v>0</v>
       </c>
       <c r="B82" s="31">
         <v>5</v>
       </c>
       <c r="C82" s="31">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="D82" s="31" t="s">
         <v>37</v>
@@ -25003,14 +25013,14 @@
       </c>
     </row>
     <row r="83" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="A83" s="36">
         <v>0</v>
       </c>
       <c r="B83" s="31">
         <v>5</v>
       </c>
       <c r="C83" s="31">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="D83" s="31" t="s">
         <v>37</v>
@@ -25112,14 +25122,14 @@
       </c>
     </row>
     <row r="84" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84">
+      <c r="A84" s="36">
         <v>0</v>
       </c>
       <c r="B84" s="31">
         <v>5</v>
       </c>
       <c r="C84" s="31">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="D84" s="31" t="s">
         <v>37</v>
@@ -25221,14 +25231,14 @@
       </c>
     </row>
     <row r="85" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85">
+      <c r="A85" s="36">
         <v>0</v>
       </c>
       <c r="B85" s="31">
         <v>5</v>
       </c>
       <c r="C85" s="31">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="D85" s="31" t="s">
         <v>37</v>
@@ -25330,14 +25340,14 @@
       </c>
     </row>
     <row r="86" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86">
+      <c r="A86" s="36">
         <v>0</v>
       </c>
       <c r="B86" s="31">
         <v>5</v>
       </c>
       <c r="C86" s="31">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="D86" s="31" t="s">
         <v>37</v>
@@ -25439,14 +25449,14 @@
       </c>
     </row>
     <row r="87" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="A87" s="36">
         <v>0</v>
       </c>
       <c r="B87" s="31">
         <v>5</v>
       </c>
       <c r="C87" s="31">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="D87" s="31" t="s">
         <v>37</v>
@@ -25548,14 +25558,14 @@
       </c>
     </row>
     <row r="88" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="A88" s="36">
         <v>0</v>
       </c>
       <c r="B88" s="31">
         <v>6</v>
       </c>
-      <c r="C88" s="31">
-        <v>85</v>
+      <c r="C88" s="37">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D88" s="31" t="s">
         <v>37</v>
@@ -25659,14 +25669,14 @@
       </c>
     </row>
     <row r="89" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89">
+      <c r="A89" s="36">
         <v>0</v>
       </c>
       <c r="B89" s="31">
         <v>6</v>
       </c>
-      <c r="C89" s="31">
-        <v>85.1</v>
+      <c r="C89" s="37">
+        <v>1.2</v>
       </c>
       <c r="D89" s="31" t="s">
         <v>37</v>
@@ -25770,14 +25780,14 @@
       </c>
     </row>
     <row r="90" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90">
+      <c r="A90" s="36">
         <v>0</v>
       </c>
       <c r="B90" s="31">
         <v>6</v>
       </c>
-      <c r="C90" s="31">
-        <v>85.2</v>
+      <c r="C90" s="37">
+        <v>1.3</v>
       </c>
       <c r="D90" s="31" t="s">
         <v>37</v>
@@ -25881,14 +25891,14 @@
       </c>
     </row>
     <row r="91" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91">
+      <c r="A91" s="36">
         <v>0</v>
       </c>
       <c r="B91" s="31">
         <v>6</v>
       </c>
-      <c r="C91" s="31">
-        <v>86</v>
+      <c r="C91" s="37">
+        <v>2</v>
       </c>
       <c r="D91" s="31" t="s">
         <v>37</v>
@@ -25992,14 +26002,14 @@
       </c>
     </row>
     <row r="92" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92">
+      <c r="A92" s="36">
         <v>0</v>
       </c>
       <c r="B92" s="31">
         <v>6</v>
       </c>
-      <c r="C92" s="31">
-        <v>87</v>
+      <c r="C92" s="37">
+        <v>3</v>
       </c>
       <c r="D92" s="31" t="s">
         <v>37</v>
@@ -26101,14 +26111,14 @@
       </c>
     </row>
     <row r="93" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93">
+      <c r="A93" s="36">
         <v>0</v>
       </c>
       <c r="B93" s="31">
         <v>6</v>
       </c>
-      <c r="C93" s="31">
-        <v>88</v>
+      <c r="C93" s="37">
+        <v>4</v>
       </c>
       <c r="D93" s="31" t="s">
         <v>37</v>
@@ -26210,14 +26220,14 @@
       </c>
     </row>
     <row r="94" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94">
+      <c r="A94" s="36">
         <v>0</v>
       </c>
       <c r="B94" s="31">
         <v>6</v>
       </c>
-      <c r="C94" s="31">
-        <v>89</v>
+      <c r="C94" s="37">
+        <v>5</v>
       </c>
       <c r="D94" s="31" t="s">
         <v>37</v>
@@ -26319,14 +26329,14 @@
       </c>
     </row>
     <row r="95" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95">
+      <c r="A95" s="36">
         <v>0</v>
       </c>
       <c r="B95" s="31">
         <v>6</v>
       </c>
-      <c r="C95" s="31">
-        <v>90</v>
+      <c r="C95" s="37">
+        <v>6</v>
       </c>
       <c r="D95" s="31" t="s">
         <v>37</v>
@@ -26428,14 +26438,14 @@
       </c>
     </row>
     <row r="96" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96">
+      <c r="A96" s="36">
         <v>0</v>
       </c>
       <c r="B96" s="31">
         <v>6</v>
       </c>
-      <c r="C96" s="31">
-        <v>91</v>
+      <c r="C96" s="37">
+        <v>7</v>
       </c>
       <c r="D96" s="31" t="s">
         <v>37</v>
@@ -26537,14 +26547,14 @@
       </c>
     </row>
     <row r="97" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97">
+      <c r="A97" s="36">
         <v>0</v>
       </c>
       <c r="B97" s="31">
         <v>6</v>
       </c>
-      <c r="C97" s="31">
-        <v>92</v>
+      <c r="C97" s="37">
+        <v>8</v>
       </c>
       <c r="D97" s="31" t="s">
         <v>37</v>
@@ -26646,14 +26656,14 @@
       </c>
     </row>
     <row r="98" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98">
+      <c r="A98" s="36">
         <v>0</v>
       </c>
       <c r="B98" s="31">
         <v>6</v>
       </c>
-      <c r="C98" s="31">
-        <v>93</v>
+      <c r="C98" s="37">
+        <v>9</v>
       </c>
       <c r="D98" s="31" t="s">
         <v>37</v>
@@ -26755,14 +26765,14 @@
       </c>
     </row>
     <row r="99" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99">
+      <c r="A99" s="36">
         <v>0</v>
       </c>
       <c r="B99" s="31">
         <v>6</v>
       </c>
-      <c r="C99" s="31">
-        <v>94</v>
+      <c r="C99" s="37">
+        <v>10</v>
       </c>
       <c r="D99" s="31" t="s">
         <v>37</v>
@@ -26864,14 +26874,14 @@
       </c>
     </row>
     <row r="100" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100">
+      <c r="A100" s="36">
         <v>0</v>
       </c>
       <c r="B100" s="31">
         <v>6</v>
       </c>
-      <c r="C100" s="31">
-        <v>95</v>
+      <c r="C100" s="37">
+        <v>11</v>
       </c>
       <c r="D100" s="31" t="s">
         <v>37</v>
@@ -26973,14 +26983,14 @@
       </c>
     </row>
     <row r="101" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101">
+      <c r="A101" s="36">
         <v>0</v>
       </c>
       <c r="B101" s="31">
         <v>6</v>
       </c>
-      <c r="C101" s="31">
-        <v>96</v>
+      <c r="C101" s="37">
+        <v>12</v>
       </c>
       <c r="D101" s="31" t="s">
         <v>37</v>
@@ -27082,14 +27092,14 @@
       </c>
     </row>
     <row r="102" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102">
+      <c r="A102" s="36">
         <v>0</v>
       </c>
       <c r="B102" s="31">
         <v>6</v>
       </c>
-      <c r="C102" s="31">
-        <v>97</v>
+      <c r="C102" s="37">
+        <v>13</v>
       </c>
       <c r="D102" s="31" t="s">
         <v>37</v>
@@ -27191,14 +27201,14 @@
       </c>
     </row>
     <row r="103" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103">
+      <c r="A103" s="36">
         <v>0</v>
       </c>
       <c r="B103" s="31">
         <v>7</v>
       </c>
-      <c r="C103" s="31">
-        <v>98</v>
+      <c r="C103" s="37">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D103" s="31" t="s">
         <v>37</v>
@@ -27302,14 +27312,14 @@
       </c>
     </row>
     <row r="104" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104">
+      <c r="A104" s="36">
         <v>0</v>
       </c>
       <c r="B104" s="31">
         <v>7</v>
       </c>
-      <c r="C104" s="31">
-        <v>98.1</v>
+      <c r="C104" s="37">
+        <v>1.2</v>
       </c>
       <c r="D104" s="31" t="s">
         <v>37</v>
@@ -27413,14 +27423,14 @@
       </c>
     </row>
     <row r="105" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105">
+      <c r="A105" s="36">
         <v>0</v>
       </c>
       <c r="B105" s="31">
         <v>7</v>
       </c>
-      <c r="C105" s="31">
-        <v>98.2</v>
+      <c r="C105" s="37">
+        <v>1.3</v>
       </c>
       <c r="D105" s="31" t="s">
         <v>37</v>
@@ -27524,14 +27534,14 @@
       </c>
     </row>
     <row r="106" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106">
+      <c r="A106" s="36">
         <v>0</v>
       </c>
       <c r="B106" s="31">
         <v>7</v>
       </c>
-      <c r="C106" s="31">
-        <v>99</v>
+      <c r="C106" s="37">
+        <v>2</v>
       </c>
       <c r="D106" s="31" t="s">
         <v>37</v>
@@ -27633,14 +27643,14 @@
       </c>
     </row>
     <row r="107" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107">
+      <c r="A107" s="36">
         <v>0</v>
       </c>
       <c r="B107" s="31">
         <v>7</v>
       </c>
-      <c r="C107" s="31">
-        <v>100</v>
+      <c r="C107" s="37">
+        <v>3</v>
       </c>
       <c r="D107" s="31" t="s">
         <v>37</v>
@@ -27742,14 +27752,14 @@
       </c>
     </row>
     <row r="108" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108">
+      <c r="A108" s="36">
         <v>0</v>
       </c>
       <c r="B108" s="31">
         <v>7</v>
       </c>
-      <c r="C108" s="31">
-        <v>101</v>
+      <c r="C108" s="37">
+        <v>4</v>
       </c>
       <c r="D108" s="31" t="s">
         <v>37</v>
@@ -27851,14 +27861,14 @@
       </c>
     </row>
     <row r="109" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109">
+      <c r="A109" s="36">
         <v>0</v>
       </c>
       <c r="B109" s="31">
         <v>7</v>
       </c>
-      <c r="C109" s="31">
-        <v>102</v>
+      <c r="C109" s="37">
+        <v>5</v>
       </c>
       <c r="D109" s="31" t="s">
         <v>37</v>
@@ -27960,14 +27970,14 @@
       </c>
     </row>
     <row r="110" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110">
+      <c r="A110" s="36">
         <v>0</v>
       </c>
       <c r="B110" s="31">
         <v>7</v>
       </c>
-      <c r="C110" s="31">
-        <v>103</v>
+      <c r="C110" s="37">
+        <v>6</v>
       </c>
       <c r="D110" s="31" t="s">
         <v>37</v>
@@ -28069,14 +28079,14 @@
       </c>
     </row>
     <row r="111" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111">
+      <c r="A111" s="36">
         <v>0</v>
       </c>
       <c r="B111" s="31">
         <v>7</v>
       </c>
-      <c r="C111" s="31">
-        <v>104</v>
+      <c r="C111" s="37">
+        <v>7</v>
       </c>
       <c r="D111" s="31" t="s">
         <v>37</v>
@@ -28178,14 +28188,14 @@
       </c>
     </row>
     <row r="112" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112">
+      <c r="A112" s="36">
         <v>0</v>
       </c>
       <c r="B112" s="31">
         <v>7</v>
       </c>
-      <c r="C112" s="31">
-        <v>105</v>
+      <c r="C112" s="37">
+        <v>8</v>
       </c>
       <c r="D112" s="31" t="s">
         <v>37</v>
@@ -28287,14 +28297,14 @@
       </c>
     </row>
     <row r="113" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113">
+      <c r="A113" s="36">
         <v>0</v>
       </c>
       <c r="B113" s="31">
         <v>7</v>
       </c>
-      <c r="C113" s="31">
-        <v>106</v>
+      <c r="C113" s="37">
+        <v>9</v>
       </c>
       <c r="D113" s="31" t="s">
         <v>37</v>
@@ -28396,14 +28406,14 @@
       </c>
     </row>
     <row r="114" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114">
+      <c r="A114" s="36">
         <v>0</v>
       </c>
       <c r="B114" s="31">
         <v>7</v>
       </c>
-      <c r="C114" s="31">
-        <v>107</v>
+      <c r="C114" s="37">
+        <v>10</v>
       </c>
       <c r="D114" s="31" t="s">
         <v>37</v>
@@ -28505,14 +28515,14 @@
       </c>
     </row>
     <row r="115" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115">
+      <c r="A115" s="36">
         <v>0</v>
       </c>
       <c r="B115" s="31">
         <v>7</v>
       </c>
-      <c r="C115" s="31">
-        <v>108</v>
+      <c r="C115" s="37">
+        <v>11</v>
       </c>
       <c r="D115" s="31" t="s">
         <v>37</v>
@@ -28614,14 +28624,14 @@
       </c>
     </row>
     <row r="116" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116">
+      <c r="A116" s="36">
         <v>0</v>
       </c>
       <c r="B116" s="31">
         <v>7</v>
       </c>
-      <c r="C116" s="31">
-        <v>109</v>
+      <c r="C116" s="37">
+        <v>12</v>
       </c>
       <c r="D116" s="31" t="s">
         <v>37</v>
@@ -28723,14 +28733,14 @@
       </c>
     </row>
     <row r="117" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117">
+      <c r="A117" s="36">
         <v>0</v>
       </c>
       <c r="B117" s="31">
         <v>7</v>
       </c>
-      <c r="C117" s="31">
-        <v>110</v>
+      <c r="C117" s="37">
+        <v>13</v>
       </c>
       <c r="D117" s="31" t="s">
         <v>37</v>
@@ -28832,14 +28842,14 @@
       </c>
     </row>
     <row r="118" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118">
+      <c r="A118" s="36">
         <v>0</v>
       </c>
       <c r="B118" s="31">
         <v>8</v>
       </c>
-      <c r="C118" s="31">
-        <v>111</v>
+      <c r="C118" s="37">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D118" s="31" t="s">
         <v>37</v>
@@ -28943,14 +28953,14 @@
       </c>
     </row>
     <row r="119" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119">
+      <c r="A119" s="36">
         <v>0</v>
       </c>
       <c r="B119" s="31">
         <v>8</v>
       </c>
-      <c r="C119" s="31">
-        <v>111.1</v>
+      <c r="C119" s="37">
+        <v>1.2</v>
       </c>
       <c r="D119" s="31" t="s">
         <v>37</v>
@@ -29054,14 +29064,14 @@
       </c>
     </row>
     <row r="120" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120">
+      <c r="A120" s="36">
         <v>0</v>
       </c>
       <c r="B120" s="31">
         <v>8</v>
       </c>
-      <c r="C120" s="31">
-        <v>111.2</v>
+      <c r="C120" s="37">
+        <v>1.3</v>
       </c>
       <c r="D120" s="31" t="s">
         <v>37</v>
@@ -29165,14 +29175,14 @@
       </c>
     </row>
     <row r="121" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121">
+      <c r="A121" s="36">
         <v>0</v>
       </c>
       <c r="B121" s="31">
         <v>8</v>
       </c>
-      <c r="C121" s="31">
-        <v>112</v>
+      <c r="C121" s="37">
+        <v>2</v>
       </c>
       <c r="D121" s="31" t="s">
         <v>37</v>
@@ -29274,14 +29284,14 @@
       </c>
     </row>
     <row r="122" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122">
+      <c r="A122" s="36">
         <v>0</v>
       </c>
       <c r="B122" s="31">
         <v>8</v>
       </c>
-      <c r="C122" s="31">
-        <v>113</v>
+      <c r="C122" s="37">
+        <v>3</v>
       </c>
       <c r="D122" s="31" t="s">
         <v>37</v>
@@ -29383,14 +29393,14 @@
       </c>
     </row>
     <row r="123" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123">
+      <c r="A123" s="36">
         <v>0</v>
       </c>
       <c r="B123" s="31">
         <v>8</v>
       </c>
-      <c r="C123" s="31">
-        <v>114</v>
+      <c r="C123" s="37">
+        <v>4</v>
       </c>
       <c r="D123" s="31" t="s">
         <v>37</v>
@@ -29492,14 +29502,14 @@
       </c>
     </row>
     <row r="124" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124">
+      <c r="A124" s="36">
         <v>0</v>
       </c>
       <c r="B124" s="31">
         <v>8</v>
       </c>
-      <c r="C124" s="31">
-        <v>115</v>
+      <c r="C124" s="37">
+        <v>5</v>
       </c>
       <c r="D124" s="31" t="s">
         <v>37</v>
@@ -29601,14 +29611,14 @@
       </c>
     </row>
     <row r="125" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125">
+      <c r="A125" s="36">
         <v>0</v>
       </c>
       <c r="B125" s="31">
         <v>8</v>
       </c>
-      <c r="C125" s="31">
-        <v>116</v>
+      <c r="C125" s="37">
+        <v>6</v>
       </c>
       <c r="D125" s="31" t="s">
         <v>37</v>
@@ -29710,14 +29720,14 @@
       </c>
     </row>
     <row r="126" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126">
+      <c r="A126" s="36">
         <v>0</v>
       </c>
       <c r="B126" s="31">
         <v>8</v>
       </c>
-      <c r="C126" s="31">
-        <v>117</v>
+      <c r="C126" s="37">
+        <v>7</v>
       </c>
       <c r="D126" s="31" t="s">
         <v>37</v>
@@ -29819,14 +29829,14 @@
       </c>
     </row>
     <row r="127" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127">
+      <c r="A127" s="36">
         <v>0</v>
       </c>
       <c r="B127" s="31">
         <v>8</v>
       </c>
-      <c r="C127" s="31">
-        <v>118</v>
+      <c r="C127" s="37">
+        <v>8</v>
       </c>
       <c r="D127" s="31" t="s">
         <v>37</v>
@@ -29928,14 +29938,14 @@
       </c>
     </row>
     <row r="128" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128">
+      <c r="A128" s="36">
         <v>0</v>
       </c>
       <c r="B128" s="31">
         <v>8</v>
       </c>
-      <c r="C128" s="31">
-        <v>119</v>
+      <c r="C128" s="37">
+        <v>9</v>
       </c>
       <c r="D128" s="31" t="s">
         <v>37</v>
@@ -30037,14 +30047,14 @@
       </c>
     </row>
     <row r="129" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129">
+      <c r="A129" s="36">
         <v>0</v>
       </c>
       <c r="B129" s="31">
         <v>8</v>
       </c>
-      <c r="C129" s="31">
-        <v>120</v>
+      <c r="C129" s="37">
+        <v>10</v>
       </c>
       <c r="D129" s="31" t="s">
         <v>37</v>
@@ -30146,14 +30156,14 @@
       </c>
     </row>
     <row r="130" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130">
+      <c r="A130" s="36">
         <v>0</v>
       </c>
       <c r="B130" s="31">
         <v>8</v>
       </c>
-      <c r="C130" s="31">
-        <v>121</v>
+      <c r="C130" s="37">
+        <v>11</v>
       </c>
       <c r="D130" s="31" t="s">
         <v>37</v>
@@ -30255,14 +30265,14 @@
       </c>
     </row>
     <row r="131" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131">
+      <c r="A131" s="36">
         <v>0</v>
       </c>
       <c r="B131" s="31">
         <v>8</v>
       </c>
-      <c r="C131" s="31">
-        <v>122</v>
+      <c r="C131" s="37">
+        <v>12</v>
       </c>
       <c r="D131" s="31" t="s">
         <v>37</v>
@@ -30364,14 +30374,14 @@
       </c>
     </row>
     <row r="132" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132">
+      <c r="A132" s="36">
         <v>0</v>
       </c>
       <c r="B132" s="31">
         <v>8</v>
       </c>
-      <c r="C132" s="31">
-        <v>123</v>
+      <c r="C132" s="37">
+        <v>13</v>
       </c>
       <c r="D132" s="31" t="s">
         <v>37</v>
